--- a/Prodcom_calibration/carbon_emissions_MatContent.xlsx
+++ b/Prodcom_calibration/carbon_emissions_MatContent.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Common_Material</t>
   </si>
   <si>
-    <t xml:space="preserve">10% more efficient 2016-2017</t>
+    <t xml:space="preserve">10% least emissive installations 2016-2017</t>
   </si>
   <si>
     <t xml:space="preserve">Median emissions 2016-2017</t>
